--- a/premise/data/additional_inventories/lci-PV-perovskite-eol.xlsx
+++ b/premise/data/additional_inventories/lci-PV-perovskite-eol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="821" documentId="13_ncr:1_{D0FB8C27-5AAD-4D83-B52A-9764F8EB4256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8082718F-29B6-4950-B223-33D778D3B317}"/>
   <bookViews>
@@ -10,7 +10,7 @@
   <sheets>
     <sheet name="Perovskite_EOL" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,342 +33,342 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="110">
   <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>perovskite_EoL</t>
+  </si>
+  <si>
     <t>Activity</t>
   </si>
   <si>
+    <t>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ag recovery rate is assumed to be 100% (Wang, 2024), 2.6E-04 kg Ag/kg perovskite. </t>
+  </si>
+  <si>
     <t>location</t>
   </si>
   <si>
+    <t>SE</t>
+  </si>
+  <si>
     <t>production amount</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
     <t>source</t>
-  </si>
-  <si>
-    <t>reference product</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>process</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>kilogram</t>
-  </si>
-  <si>
-    <t>Exchanges</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>categories</t>
-  </si>
-  <si>
-    <t>production</t>
-  </si>
-  <si>
-    <t>technosphere</t>
-  </si>
-  <si>
-    <t>CH</t>
-  </si>
-  <si>
-    <t>kilowatt hour</t>
-  </si>
-  <si>
-    <t>database</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>uncertainty type</t>
-  </si>
-  <si>
-    <t>loc</t>
-  </si>
-  <si>
-    <t>scale</t>
-  </si>
-  <si>
-    <t>shape</t>
-  </si>
-  <si>
-    <t>minimum</t>
-  </si>
-  <si>
-    <t>maximum</t>
-  </si>
-  <si>
-    <t>electricity, high voltage</t>
-  </si>
-  <si>
-    <t>market for electricity, high voltage</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>market for electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>perovskite_EoL</t>
-  </si>
-  <si>
-    <t>market for nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>nitrogen, liquid</t>
-  </si>
-  <si>
-    <t>RER</t>
-  </si>
-  <si>
-    <t>natural gas, high pressure, import from NO</t>
-  </si>
-  <si>
-    <t>natural gas, high pressure</t>
-  </si>
-  <si>
-    <t>cubic meter</t>
-  </si>
-  <si>
-    <t>chlor-alkali electrolysis, membrane cell</t>
-  </si>
-  <si>
-    <t>sodium hydroxide, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>market for potassium hydroxide</t>
-  </si>
-  <si>
-    <t>potassium hydroxide</t>
-  </si>
-  <si>
-    <t>GLO</t>
-  </si>
-  <si>
-    <t>market for sulfuric acid</t>
-  </si>
-  <si>
-    <t>sulfuric acid</t>
-  </si>
-  <si>
-    <t>water, deionised</t>
-  </si>
-  <si>
-    <t>market for water, deionised</t>
-  </si>
-  <si>
-    <t>Europe without Switzerland</t>
-  </si>
-  <si>
-    <t>market for nitric acid, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>nitric acid, without water, in 50% solution state</t>
-  </si>
-  <si>
-    <t>N,N-dimethylformamide</t>
-  </si>
-  <si>
-    <t>market for cationic resin</t>
-  </si>
-  <si>
-    <t>cationic resin</t>
-  </si>
-  <si>
-    <t>RoW</t>
-  </si>
-  <si>
-    <t>market for o-dichlorobenzene</t>
-  </si>
-  <si>
-    <t>o-dichlorobenzene</t>
-  </si>
-  <si>
-    <t>SE</t>
-  </si>
-  <si>
-    <t>silver</t>
-  </si>
-  <si>
-    <t>aluminium, cast alloy</t>
-  </si>
-  <si>
-    <t>treatment of precious metal from electronics scrap, in anode slime, precious metal extraction</t>
-  </si>
-  <si>
-    <t>treatment of aluminium scrap, post-consumer, prepared for recycling, at refiner</t>
-  </si>
-  <si>
-    <t>treatment of used cable</t>
-  </si>
-  <si>
-    <t>copper, cathode</t>
-  </si>
-  <si>
-    <t>treatment of copper scrap by electrolytic refining</t>
-  </si>
-  <si>
-    <t>heat, district or industrial, natural gas</t>
-  </si>
-  <si>
-    <t>heat and power co-generation, natural gas, conventional power plant, 100MW electrical</t>
-  </si>
-  <si>
-    <t>market for waste plastic, mixture</t>
-  </si>
-  <si>
-    <t>waste plastic, mixture</t>
-  </si>
-  <si>
-    <t>treatment of wastewater, average, wastewater treatment</t>
-  </si>
-  <si>
-    <t>wastewater, average</t>
-  </si>
-  <si>
-    <t>market for quicklime, milled, loose</t>
-  </si>
-  <si>
-    <t>quicklime, milled, loose</t>
-  </si>
-  <si>
-    <t>treatment of used perovskite, delamination, pyrolysis, chemical treatment</t>
-  </si>
-  <si>
-    <t>megajoule</t>
-  </si>
-  <si>
-    <t>lead</t>
-  </si>
-  <si>
-    <t>silicon, metallurgical grade</t>
-  </si>
-  <si>
-    <t>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</t>
-  </si>
-  <si>
-    <t>used perovskite module</t>
-  </si>
-  <si>
-    <t>treatment of used perovskite module, delamination</t>
-  </si>
-  <si>
-    <t>delaminated used perovskite module</t>
-  </si>
-  <si>
-    <t>pyrolysed used perovskite module</t>
-  </si>
-  <si>
-    <t>treatment of used perovskite module, pyrolysis</t>
-  </si>
-  <si>
-    <t>treatment of SHJ cells in used perovskite module, chemical treatment</t>
-  </si>
-  <si>
-    <t>chemical treated SHJ cells in used perovskite module</t>
-  </si>
-  <si>
-    <t>treatment of perovskite section in used perovskite module, chemical treatment</t>
-  </si>
-  <si>
-    <t>chemical treated perovskite section in used perovskite module</t>
-  </si>
-  <si>
-    <t>second treated used perovskite module</t>
-  </si>
-  <si>
-    <t>waste from perovskite module treatment</t>
-  </si>
-  <si>
-    <t>treatment of waste from perovskite module treatment</t>
-  </si>
-  <si>
-    <t>market for N,N-dimethylformamide</t>
-  </si>
-  <si>
-    <t>RER w/o RU</t>
-  </si>
-  <si>
-    <t>square meter</t>
-  </si>
-  <si>
-    <t>1 m2 of perovskite module is equal to 12.05kg according to Wang, 2024</t>
-  </si>
-  <si>
-    <t>Pb recovery rate is assumed to be 99% (Wang, 2024),  1.2E-05 kg Pb/kg perovskite</t>
-  </si>
-  <si>
-    <t>Si(2N) recovery rate is assumed to be 98% according to (Wang,2024), 2.5E-02kg/kg perovskite</t>
   </si>
   <si>
     <t>L. Wang et al.: EPJ Photovoltaics 15, 14 (2024). Modelling recycling for the life cycle assessment
 of perovskite/silicon tandem modules</t>
   </si>
   <si>
+    <t>reference product</t>
+  </si>
+  <si>
+    <t>silver</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>Exchanges</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>uncertainty type</t>
+  </si>
+  <si>
+    <t>loc</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>minimum</t>
+  </si>
+  <si>
+    <t>maximum</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>treatment of precious metal from electronics scrap, in anode slime, precious metal extraction</t>
+  </si>
+  <si>
+    <t>technosphere</t>
+  </si>
+  <si>
+    <t>perovskite module treatment for silver is linked to the treatment of precious metal from electroincs scrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al recovery rate is assumed to be 97% (Wang, 2024), 7.6E-02 kg Al/kg perovskite. </t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>aluminium, cast alloy</t>
+  </si>
+  <si>
+    <t>treatment of aluminium scrap, post-consumer, prepared for recycling, at refiner</t>
+  </si>
+  <si>
+    <t>perovskite module treatment for aluminium is linked to the treatment of aluminium scrap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu recovery rate for cables is assumed to be 100% (Wang, 2024),  3.6E-03kg Cu/kg pervoskite. </t>
+  </si>
+  <si>
+    <t>GLO</t>
+  </si>
+  <si>
+    <t>copper, cathode</t>
+  </si>
+  <si>
+    <t>treatment of used cable</t>
+  </si>
+  <si>
+    <t>perovskite module treatment for copper is linked to the treatment of used cable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cu recovery rate for interconnection is 76% for interconnection (Wang, 2024), 8.0E-04kg Cu/kg perovskite. </t>
+  </si>
+  <si>
+    <t>treatment of copper scrap by electrolytic refining</t>
+  </si>
+  <si>
+    <t>perovskite module treatment for copper is linked to the treatment of copper scrap by electrolytic refining</t>
+  </si>
+  <si>
+    <t>Pb recovery rate is assumed to be 99% (Wang, 2024),  1.2E-05 kg Pb/kg perovskite</t>
+  </si>
+  <si>
+    <t>lead</t>
+  </si>
+  <si>
+    <t>Si(2N) recovery rate is assumed to be 98% according to (Wang,2024), 2.5E-02kg/kg perovskite</t>
+  </si>
+  <si>
+    <t>RoW</t>
+  </si>
+  <si>
+    <t>silicon, metallurgical grade</t>
+  </si>
+  <si>
+    <t>treatment of used perovskite, delamination, pyrolysis, chemical treatment</t>
+  </si>
+  <si>
+    <t>1 m2 of perovskite module is equal to 12.05kg according to Wang, 2024</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>used perovskite module</t>
+  </si>
+  <si>
+    <t>square meter</t>
+  </si>
+  <si>
+    <t>For 1 m2 of perovskite module which equals to 12.05kg</t>
+  </si>
+  <si>
+    <t>treatment of used perovskite module, delamination</t>
+  </si>
+  <si>
+    <t>delaminated used perovskite module</t>
+  </si>
+  <si>
+    <t>For 1 kg of perovskite module</t>
+  </si>
+  <si>
+    <t>market for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>kilowatt hour</t>
+  </si>
+  <si>
+    <t>electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>Data from TableB1 (Wang et al. 2024)</t>
+  </si>
+  <si>
+    <t>treatment of used perovskite module, pyrolysis</t>
+  </si>
+  <si>
+    <t>pyrolysed used perovskite module</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>natural gas, high pressure, import from NO</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>chlor-alkali electrolysis, membrane cell</t>
+  </si>
+  <si>
+    <t>sodium hydroxide, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>market for quicklime, milled, loose</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>quicklime, milled, loose</t>
+  </si>
+  <si>
+    <t>treatment of SHJ cells in used perovskite module, chemical treatment</t>
+  </si>
+  <si>
+    <t>chemical treated SHJ cells in used perovskite module</t>
+  </si>
+  <si>
+    <t>market for potassium hydroxide</t>
+  </si>
+  <si>
+    <t>potassium hydroxide</t>
+  </si>
+  <si>
+    <t>market for sulfuric acid</t>
+  </si>
+  <si>
+    <t>sulfuric acid</t>
+  </si>
+  <si>
+    <t>market for water, deionised</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>water, deionised</t>
+  </si>
+  <si>
+    <t>treatment of perovskite section in used perovskite module, chemical treatment</t>
+  </si>
+  <si>
+    <t>chemical treated perovskite section in used perovskite module</t>
+  </si>
+  <si>
+    <t>market for nitric acid, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>RER w/o RU</t>
+  </si>
+  <si>
+    <t>nitric acid, without water, in 50% solution state</t>
+  </si>
+  <si>
+    <t>market for N,N-dimethylformamide</t>
+  </si>
+  <si>
+    <t>N,N-dimethylformamide</t>
+  </si>
+  <si>
+    <t>market for cationic resin</t>
+  </si>
+  <si>
+    <t>cationic resin</t>
+  </si>
+  <si>
+    <t>market for o-dichlorobenzene</t>
+  </si>
+  <si>
+    <t>o-dichlorobenzene</t>
+  </si>
+  <si>
+    <t>treatment of used perovskite module, glass treatment</t>
+  </si>
+  <si>
+    <t>second treated used perovskite module</t>
+  </si>
+  <si>
+    <t>treatment of glass from used perovskite module</t>
+  </si>
+  <si>
     <t>glass from used perovskite module</t>
   </si>
   <si>
-    <t>treatment of glass from used perovskite module</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ag recovery rate is assumed to be 100% (Wang, 2024), 2.6E-04 kg Ag/kg perovskite. </t>
-  </si>
-  <si>
-    <t>perovskite module treatment for silver is linked to the treatment of precious metal from electroincs scrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Al recovery rate is assumed to be 97% (Wang, 2024), 7.6E-02 kg Al/kg perovskite. </t>
-  </si>
-  <si>
-    <t>perovskite module treatment for aluminium is linked to the treatment of aluminium scrap</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu recovery rate for cables is assumed to be 100% (Wang, 2024),  3.6E-03kg Cu/kg pervoskite. </t>
-  </si>
-  <si>
-    <t>perovskite module treatment for copper is linked to the treatment of used cable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cu recovery rate for interconnection is 76% for interconnection (Wang, 2024), 8.0E-04kg Cu/kg perovskite. </t>
-  </si>
-  <si>
-    <t>perovskite module treatment for copper is linked to the treatment of copper scrap by electrolytic refining</t>
-  </si>
-  <si>
-    <t>For 1 m2 of perovskite module which equals to 12.05kg</t>
-  </si>
-  <si>
-    <t>For 1 kg of perovskite module</t>
-  </si>
-  <si>
-    <t>Data from TableB1 (Wang et al. 2024)</t>
-  </si>
-  <si>
-    <t>treatment of used perovskite module, glass treatment</t>
+    <t>heat and power co-generation, natural gas, conventional power plant, 100MW electrical</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, natural gas</t>
+  </si>
+  <si>
+    <t>market for electricity, high voltage</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>treatment of waste from perovskite module treatment</t>
+  </si>
+  <si>
+    <t>waste from perovskite module treatment</t>
+  </si>
+  <si>
+    <t>market for waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>waste plastic, mixture</t>
+  </si>
+  <si>
+    <t>treatment of wastewater, average, wastewater treatment</t>
+  </si>
+  <si>
+    <t>wastewater, average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,7 +437,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -458,7 +458,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -746,42 +745,42 @@
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="48.6328125" customWidth="1"/>
-    <col min="2" max="2" width="19.54296875" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" customWidth="1"/>
-    <col min="5" max="5" width="13.6328125" customWidth="1"/>
+    <col min="1" max="1" width="48.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="68.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="68.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="P1" s="1"/>
     </row>
-    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A4" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -798,12 +797,12 @@
       <c r="O4" s="11"/>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A5" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -820,12 +819,12 @@
       <c r="O5" s="11"/>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A6" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -842,9 +841,9 @@
       <c r="O6" s="11"/>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A7" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11">
         <v>1</v>
@@ -864,12 +863,12 @@
       <c r="O7" s="11"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A8" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
@@ -886,12 +885,12 @@
       <c r="O8" s="11"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A9" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="11"/>
@@ -908,12 +907,12 @@
       <c r="O9" s="11"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A10" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -930,12 +929,12 @@
       <c r="O10" s="11"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A11" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
@@ -952,9 +951,9 @@
       <c r="O11" s="11"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A12" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -972,55 +971,55 @@
       <c r="O12" s="11"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H13" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O13" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A14" s="13" t="str">
         <f>B4</f>
         <v>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</v>
@@ -1034,11 +1033,11 @@
         <v>SE</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G14" s="11" t="str">
         <f>B9</f>
@@ -1054,28 +1053,28 @@
       <c r="O14" s="11"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A15" s="13" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B15" s="11">
         <v>1</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="H15" s="11" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="11"/>
@@ -1086,15 +1085,15 @@
       <c r="O15" s="11"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A17" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1111,12 +1110,12 @@
       <c r="O17" s="11"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A18" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -1133,12 +1132,12 @@
       <c r="O18" s="11"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A19" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1155,9 +1154,9 @@
       <c r="O19" s="11"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A20" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B20" s="11">
         <v>1</v>
@@ -1177,12 +1176,12 @@
       <c r="O20" s="11"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A21" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C21" s="11"/>
       <c r="D21" s="11"/>
@@ -1199,12 +1198,12 @@
       <c r="O21" s="11"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A22" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -1221,12 +1220,12 @@
       <c r="O22" s="11"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A23" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1243,12 +1242,12 @@
       <c r="O23" s="11"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A24" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1265,9 +1264,9 @@
       <c r="O24" s="11"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A25" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -1285,55 +1284,55 @@
       <c r="O25" s="11"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A26" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H26" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O26" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A27" s="13" t="str">
         <f>B17</f>
         <v>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</v>
@@ -1347,11 +1346,11 @@
         <v>RER</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E27" s="11"/>
       <c r="F27" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G27" s="11" t="str">
         <f>B22</f>
@@ -1367,28 +1366,28 @@
       <c r="O27" s="11"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A28" s="13" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B28" s="11">
         <v>1</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E28" s="11"/>
       <c r="F28" s="11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
@@ -1399,15 +1398,15 @@
       <c r="O28" s="11"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A30" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1424,12 +1423,12 @@
       <c r="O30" s="11"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A31" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1446,12 +1445,12 @@
       <c r="O31" s="11"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A32" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1468,9 +1467,9 @@
       <c r="O32" s="11"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A33" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B33" s="11">
         <v>1</v>
@@ -1490,12 +1489,12 @@
       <c r="O33" s="11"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A34" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1512,12 +1511,12 @@
       <c r="O34" s="11"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A35" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1534,12 +1533,12 @@
       <c r="O35" s="11"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A36" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1556,12 +1555,12 @@
       <c r="O36" s="11"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A37" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1578,9 +1577,9 @@
       <c r="O37" s="11"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A38" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -1598,55 +1597,55 @@
       <c r="O38" s="11"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A39" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H39" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O39" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A40" s="13" t="str">
         <f>B30</f>
         <v>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</v>
@@ -1660,11 +1659,11 @@
         <v>GLO</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E40" s="11"/>
       <c r="F40" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G40" s="11" t="str">
         <f>B35</f>
@@ -1680,28 +1679,28 @@
       <c r="O40" s="11"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A41" s="13" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="B41" s="11">
         <v>1</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E41" s="11"/>
       <c r="F41" s="11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G41" s="11" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="I41" s="11"/>
       <c r="J41" s="11"/>
@@ -1712,15 +1711,15 @@
       <c r="O41" s="11"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A43" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C43" s="11"/>
       <c r="D43" s="11"/>
@@ -1737,12 +1736,12 @@
       <c r="O43" s="11"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A44" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
@@ -1759,12 +1758,12 @@
       <c r="O44" s="11"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A45" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -1781,9 +1780,9 @@
       <c r="O45" s="11"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A46" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B46" s="11">
         <v>1</v>
@@ -1803,12 +1802,12 @@
       <c r="O46" s="11"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A47" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="11"/>
@@ -1825,12 +1824,12 @@
       <c r="O47" s="11"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A48" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B48" s="11" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
@@ -1847,12 +1846,12 @@
       <c r="O48" s="11"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A49" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -1869,12 +1868,12 @@
       <c r="O49" s="11"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A50" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C50" s="11"/>
       <c r="D50" s="11"/>
@@ -1891,9 +1890,9 @@
       <c r="O50" s="11"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A51" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -1911,55 +1910,55 @@
       <c r="O51" s="11"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A52" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F52" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H52" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J52" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O52" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:113" s="11" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:113" s="11" customFormat="1" ht="30.95">
       <c r="A53" s="13" t="str">
         <f>B43</f>
         <v>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</v>
@@ -1973,136 +1972,136 @@
         <v>RER</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G53" s="11" t="str">
         <f>B48</f>
         <v>copper, cathode</v>
       </c>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="14"/>
-      <c r="R53" s="14"/>
-      <c r="S53" s="14"/>
-      <c r="T53" s="14"/>
-      <c r="U53" s="14"/>
-      <c r="V53" s="14"/>
-      <c r="W53" s="14"/>
-      <c r="X53" s="14"/>
-      <c r="Y53" s="14"/>
-      <c r="Z53" s="14"/>
-      <c r="AA53" s="14"/>
-      <c r="AB53" s="14"/>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="14"/>
-      <c r="AE53" s="14"/>
-      <c r="AF53" s="14"/>
-      <c r="AG53" s="14"/>
-      <c r="AH53" s="14"/>
-      <c r="AI53" s="14"/>
-      <c r="AJ53" s="14"/>
-      <c r="AK53" s="14"/>
-      <c r="AL53" s="14"/>
-      <c r="AM53" s="14"/>
-      <c r="AN53" s="14"/>
-      <c r="AO53" s="14"/>
-      <c r="AP53" s="14"/>
-      <c r="AQ53" s="14"/>
-      <c r="AR53" s="14"/>
-      <c r="AS53" s="14"/>
-      <c r="AT53" s="14"/>
-      <c r="AU53" s="14"/>
-      <c r="AV53" s="14"/>
-      <c r="AW53" s="14"/>
-      <c r="AX53" s="14"/>
-      <c r="AY53" s="14"/>
-      <c r="AZ53" s="14"/>
-      <c r="BA53" s="14"/>
-      <c r="BB53" s="14"/>
-      <c r="BC53" s="14"/>
-      <c r="BD53" s="14"/>
-      <c r="BE53" s="14"/>
-      <c r="BF53" s="14"/>
-      <c r="BG53" s="14"/>
-      <c r="BH53" s="14"/>
-      <c r="BI53" s="14"/>
-      <c r="BJ53" s="14"/>
-      <c r="BK53" s="14"/>
-      <c r="BL53" s="14"/>
-      <c r="BM53" s="14"/>
-      <c r="BN53" s="14"/>
-      <c r="BO53" s="14"/>
-      <c r="BP53" s="14"/>
-      <c r="BQ53" s="14"/>
-      <c r="BR53" s="14"/>
-      <c r="BS53" s="14"/>
-      <c r="BT53" s="14"/>
-      <c r="BU53" s="14"/>
-      <c r="BV53" s="14"/>
-      <c r="BW53" s="14"/>
-      <c r="BX53" s="14"/>
-      <c r="BY53" s="14"/>
-      <c r="BZ53" s="14"/>
-      <c r="CA53" s="14"/>
-      <c r="CB53" s="14"/>
-      <c r="CC53" s="14"/>
-      <c r="CD53" s="14"/>
-      <c r="CE53" s="14"/>
-      <c r="CF53" s="14"/>
-      <c r="CG53" s="14"/>
-      <c r="CH53" s="14"/>
-      <c r="CI53" s="14"/>
-      <c r="CJ53" s="14"/>
-      <c r="CK53" s="14"/>
-      <c r="CL53" s="14"/>
-      <c r="CM53" s="14"/>
-      <c r="CN53" s="14"/>
-      <c r="CO53" s="14"/>
-      <c r="CP53" s="14"/>
-      <c r="CQ53" s="14"/>
-      <c r="CR53" s="14"/>
-      <c r="CS53" s="14"/>
-      <c r="CT53" s="14"/>
-      <c r="CU53" s="14"/>
-      <c r="CV53" s="14"/>
-      <c r="CW53" s="14"/>
-      <c r="CX53" s="14"/>
-      <c r="CY53" s="14"/>
-      <c r="CZ53" s="14"/>
-      <c r="DA53" s="14"/>
-      <c r="DB53" s="14"/>
-      <c r="DC53" s="14"/>
-      <c r="DD53" s="14"/>
-      <c r="DE53" s="14"/>
-      <c r="DF53" s="14"/>
-      <c r="DG53" s="14"/>
-      <c r="DH53" s="14"/>
-      <c r="DI53" s="14"/>
-    </row>
-    <row r="54" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+      <c r="AT53" s="2"/>
+      <c r="AU53" s="2"/>
+      <c r="AV53" s="2"/>
+      <c r="AW53" s="2"/>
+      <c r="AX53" s="2"/>
+      <c r="AY53" s="2"/>
+      <c r="AZ53" s="2"/>
+      <c r="BA53" s="2"/>
+      <c r="BB53" s="2"/>
+      <c r="BC53" s="2"/>
+      <c r="BD53" s="2"/>
+      <c r="BE53" s="2"/>
+      <c r="BF53" s="2"/>
+      <c r="BG53" s="2"/>
+      <c r="BH53" s="2"/>
+      <c r="BI53" s="2"/>
+      <c r="BJ53" s="2"/>
+      <c r="BK53" s="2"/>
+      <c r="BL53" s="2"/>
+      <c r="BM53" s="2"/>
+      <c r="BN53" s="2"/>
+      <c r="BO53" s="2"/>
+      <c r="BP53" s="2"/>
+      <c r="BQ53" s="2"/>
+      <c r="BR53" s="2"/>
+      <c r="BS53" s="2"/>
+      <c r="BT53" s="2"/>
+      <c r="BU53" s="2"/>
+      <c r="BV53" s="2"/>
+      <c r="BW53" s="2"/>
+      <c r="BX53" s="2"/>
+      <c r="BY53" s="2"/>
+      <c r="BZ53" s="2"/>
+      <c r="CA53" s="2"/>
+      <c r="CB53" s="2"/>
+      <c r="CC53" s="2"/>
+      <c r="CD53" s="2"/>
+      <c r="CE53" s="2"/>
+      <c r="CF53" s="2"/>
+      <c r="CG53" s="2"/>
+      <c r="CH53" s="2"/>
+      <c r="CI53" s="2"/>
+      <c r="CJ53" s="2"/>
+      <c r="CK53" s="2"/>
+      <c r="CL53" s="2"/>
+      <c r="CM53" s="2"/>
+      <c r="CN53" s="2"/>
+      <c r="CO53" s="2"/>
+      <c r="CP53" s="2"/>
+      <c r="CQ53" s="2"/>
+      <c r="CR53" s="2"/>
+      <c r="CS53" s="2"/>
+      <c r="CT53" s="2"/>
+      <c r="CU53" s="2"/>
+      <c r="CV53" s="2"/>
+      <c r="CW53" s="2"/>
+      <c r="CX53" s="2"/>
+      <c r="CY53" s="2"/>
+      <c r="CZ53" s="2"/>
+      <c r="DA53" s="2"/>
+      <c r="DB53" s="2"/>
+      <c r="DC53" s="2"/>
+      <c r="DD53" s="2"/>
+      <c r="DE53" s="2"/>
+      <c r="DF53" s="2"/>
+      <c r="DG53" s="2"/>
+      <c r="DH53" s="2"/>
+      <c r="DI53" s="2"/>
+    </row>
+    <row r="54" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A54" s="13" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="B54" s="11">
         <v>1</v>
       </c>
       <c r="C54" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E54" s="11"/>
       <c r="F54" s="11" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G54" s="11" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>105</v>
+        <v>44</v>
       </c>
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
@@ -2113,15 +2112,15 @@
       <c r="O54" s="11"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A56" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
@@ -2138,12 +2137,12 @@
       <c r="O56" s="11"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A57" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C57" s="11"/>
       <c r="D57" s="11"/>
@@ -2160,12 +2159,12 @@
       <c r="O57" s="11"/>
       <c r="P57" s="1"/>
     </row>
-    <row r="58" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A58" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -2182,9 +2181,9 @@
       <c r="O58" s="11"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A59" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B59" s="11">
         <v>1</v>
@@ -2204,12 +2203,12 @@
       <c r="O59" s="11"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A60" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -2226,12 +2225,12 @@
       <c r="O60" s="11"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A61" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
@@ -2248,12 +2247,12 @@
       <c r="O61" s="11"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A62" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -2270,12 +2269,12 @@
       <c r="O62" s="11"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A63" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -2292,9 +2291,9 @@
       <c r="O63" s="11"/>
       <c r="P63" s="1"/>
     </row>
-    <row r="64" spans="1:113" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:113" s="2" customFormat="1" ht="15.6">
       <c r="A64" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -2312,55 +2311,55 @@
       <c r="O64" s="11"/>
       <c r="P64" s="1"/>
     </row>
-    <row r="65" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A65" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D65" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H65" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K65" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M65" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O65" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P65" s="1"/>
     </row>
-    <row r="66" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A66" s="13" t="str">
         <f>B56</f>
         <v>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</v>
@@ -2374,11 +2373,11 @@
         <v>GLO</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E66" s="11"/>
       <c r="F66" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G66" s="11" t="str">
         <f>B61</f>
@@ -2394,15 +2393,15 @@
       <c r="O66" s="11"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A68" s="10" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>76</v>
+        <v>3</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -2419,12 +2418,12 @@
       <c r="O68" s="11"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A69" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B69" s="11" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -2441,12 +2440,12 @@
       <c r="O69" s="11"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" ht="15.6">
       <c r="A70" s="11" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -2462,9 +2461,9 @@
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
     </row>
-    <row r="71" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" ht="15.6">
       <c r="A71" s="11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B71" s="11">
         <v>1</v>
@@ -2483,12 +2482,12 @@
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
     </row>
-    <row r="72" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" ht="15.6">
       <c r="A72" s="11" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -2504,12 +2503,12 @@
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
     </row>
-    <row r="73" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" ht="15.6">
       <c r="A73" s="11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -2525,12 +2524,12 @@
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
     </row>
-    <row r="74" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A74" s="11" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -2547,12 +2546,12 @@
       <c r="O74" s="11"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A75" s="11" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -2569,9 +2568,9 @@
       <c r="O75" s="11"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A76" s="10" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -2589,55 +2588,55 @@
       <c r="O76" s="11"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A77" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E77" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D77" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>5</v>
-      </c>
       <c r="H77" s="10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N77" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O77" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A78" s="13" t="str">
         <f>B68</f>
         <v>treatment of used perovskite module, delamination, pyrolysis, chemical treatment</v>
@@ -2651,11 +2650,11 @@
         <v>RoW</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E78" s="11"/>
       <c r="F78" s="11" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G78" s="11" t="str">
         <f>B73</f>
@@ -2671,15 +2670,15 @@
       <c r="O78" s="11"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A80" s="7" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -2696,12 +2695,12 @@
       <c r="O80" s="8"/>
       <c r="P80" s="1"/>
     </row>
-    <row r="81" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A81" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -2718,12 +2717,12 @@
       <c r="O81" s="8"/>
       <c r="P81" s="1"/>
     </row>
-    <row r="82" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A82" s="8" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C82" s="8"/>
       <c r="D82" s="8"/>
@@ -2740,9 +2739,9 @@
       <c r="O82" s="8"/>
       <c r="P82" s="1"/>
     </row>
-    <row r="83" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A83" s="8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B83" s="8">
         <v>-1</v>
@@ -2762,12 +2761,12 @@
       <c r="O83" s="8"/>
       <c r="P83" s="1"/>
     </row>
-    <row r="84" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A84" s="8" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C84" s="8"/>
       <c r="D84" s="8"/>
@@ -2784,12 +2783,12 @@
       <c r="O84" s="8"/>
       <c r="P84" s="1"/>
     </row>
-    <row r="85" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" ht="15.6">
       <c r="A85" s="8" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
@@ -2805,12 +2804,12 @@
       <c r="N85" s="8"/>
       <c r="O85" s="8"/>
     </row>
-    <row r="86" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" ht="15.6">
       <c r="A86" s="8" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C86" s="8"/>
       <c r="D86" s="8"/>
@@ -2826,12 +2825,12 @@
       <c r="N86" s="8"/>
       <c r="O86" s="8"/>
     </row>
-    <row r="87" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" ht="15.6">
       <c r="A87" s="8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>91</v>
+        <v>54</v>
       </c>
       <c r="C87" s="8"/>
       <c r="D87" s="8"/>
@@ -2847,9 +2846,9 @@
       <c r="N87" s="8"/>
       <c r="O87" s="8"/>
     </row>
-    <row r="88" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" ht="15.6">
       <c r="A88" s="7" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -2866,55 +2865,55 @@
       <c r="N88" s="8"/>
       <c r="O88" s="8"/>
     </row>
-    <row r="89" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F89" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E89" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F89" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="H89" s="7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I89" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J89" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K89" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L89" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M89" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N89" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O89" s="7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P89" s="1"/>
     </row>
-    <row r="90" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A90" s="9" t="str">
         <f>B80</f>
         <v>treatment of used perovskite, delamination, pyrolysis, chemical treatment</v>
@@ -2932,14 +2931,14 @@
       </c>
       <c r="E90" s="8"/>
       <c r="F90" s="8" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G90" s="9" t="str">
         <f>B85</f>
         <v>used perovskite module</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
@@ -2950,7 +2949,7 @@
       <c r="O90" s="8"/>
       <c r="P90" s="1"/>
     </row>
-    <row r="91" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A91" s="9" t="str">
         <f>A108</f>
         <v>treatment of used perovskite module, delamination</v>
@@ -2959,21 +2958,21 @@
         <v>-12.05</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G91" s="9" t="str">
         <f>G108</f>
         <v>delaminated used perovskite module</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
@@ -2984,7 +2983,7 @@
       <c r="O91" s="8"/>
       <c r="P91" s="1"/>
     </row>
-    <row r="92" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A92" s="9" t="str">
         <f>A121</f>
         <v>treatment of used perovskite module, pyrolysis</v>
@@ -2993,21 +2992,21 @@
         <v>-12.05</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E92" s="8"/>
       <c r="F92" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G92" s="8" t="str">
         <f>G121</f>
         <v>pyrolysed used perovskite module</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -3018,7 +3017,7 @@
       <c r="O92" s="8"/>
       <c r="P92" s="1"/>
     </row>
-    <row r="93" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A93" s="9" t="str">
         <f>A138</f>
         <v>treatment of SHJ cells in used perovskite module, chemical treatment</v>
@@ -3027,21 +3026,21 @@
         <v>-12.05</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G93" s="8" t="str">
         <f>G138</f>
         <v>chemical treated SHJ cells in used perovskite module</v>
       </c>
       <c r="H93" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
@@ -3052,7 +3051,7 @@
       <c r="O93" s="8"/>
       <c r="P93" s="1"/>
     </row>
-    <row r="94" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A94" s="9" t="str">
         <f>A153</f>
         <v>treatment of perovskite section in used perovskite module, chemical treatment</v>
@@ -3061,21 +3060,21 @@
         <v>-12.05</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E94" s="8"/>
       <c r="F94" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G94" s="8" t="str">
         <f>G153</f>
         <v>chemical treated perovskite section in used perovskite module</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
@@ -3086,7 +3085,7 @@
       <c r="O94" s="8"/>
       <c r="P94" s="1"/>
     </row>
-    <row r="95" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A95" s="9" t="str">
         <f>A169</f>
         <v>treatment of used perovskite module, glass treatment</v>
@@ -3095,21 +3094,21 @@
         <v>-12.05</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G95" s="8" t="str">
         <f>G169</f>
         <v>second treated used perovskite module</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
@@ -3120,7 +3119,7 @@
       <c r="O95" s="8"/>
       <c r="P95" s="1"/>
     </row>
-    <row r="96" spans="1:16" s="2" customFormat="1" ht="31" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" s="2" customFormat="1" ht="30.95">
       <c r="A96" s="9" t="str">
         <f>A196</f>
         <v>treatment of waste from perovskite module treatment</v>
@@ -3129,21 +3128,21 @@
         <v>-12.05</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E96" s="8"/>
       <c r="F96" s="8" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G96" s="8" t="str">
         <f>G196</f>
         <v>waste from perovskite module treatment</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
@@ -3154,7 +3153,7 @@
       <c r="O96" s="8"/>
       <c r="P96" s="1"/>
     </row>
-    <row r="97" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" ht="15.6">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3171,12 +3170,12 @@
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" ht="15.6">
       <c r="A98" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3192,12 +3191,12 @@
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
     </row>
-    <row r="99" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" ht="15.6">
       <c r="A99" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3213,12 +3212,12 @@
       <c r="N99" s="5"/>
       <c r="O99" s="5"/>
     </row>
-    <row r="100" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" ht="15.6">
       <c r="A100" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3234,9 +3233,9 @@
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
     </row>
-    <row r="101" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" ht="15.6">
       <c r="A101" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B101" s="5">
         <v>-1</v>
@@ -3255,12 +3254,12 @@
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
     </row>
-    <row r="102" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" ht="15.6">
       <c r="A102" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
@@ -3276,12 +3275,12 @@
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
     </row>
-    <row r="103" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" ht="15.6">
       <c r="A103" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -3297,12 +3296,12 @@
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
     </row>
-    <row r="104" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" ht="15.6">
       <c r="A104" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
@@ -3318,12 +3317,12 @@
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
     </row>
-    <row r="105" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A105" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
@@ -3340,9 +3339,9 @@
       <c r="O105" s="5"/>
       <c r="P105" s="1"/>
     </row>
-    <row r="106" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A106" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -3360,55 +3359,55 @@
       <c r="O106" s="5"/>
       <c r="P106" s="1"/>
     </row>
-    <row r="107" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A107" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G107" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B107" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D107" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F107" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H107" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J107" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O107" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P107" s="1"/>
     </row>
-    <row r="108" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A108" s="5" t="str">
         <f>B98</f>
         <v>treatment of used perovskite module, delamination</v>
@@ -3426,14 +3425,14 @@
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G108" s="5" t="str">
         <f>B103</f>
         <v>delaminated used perovskite module</v>
       </c>
       <c r="H108" s="5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I108" s="5"/>
       <c r="J108" s="5"/>
@@ -3444,28 +3443,28 @@
       <c r="O108" s="5"/>
       <c r="P108" s="1"/>
     </row>
-    <row r="109" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A109" s="5" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B109" s="6">
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G109" s="5" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H109" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I109" s="5"/>
       <c r="J109" s="5"/>
@@ -3476,7 +3475,7 @@
       <c r="O109" s="5"/>
       <c r="P109" s="1"/>
     </row>
-    <row r="110" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -3494,12 +3493,12 @@
       <c r="O110"/>
       <c r="P110" s="1"/>
     </row>
-    <row r="111" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A111" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
@@ -3516,12 +3515,12 @@
       <c r="O111" s="5"/>
       <c r="P111" s="1"/>
     </row>
-    <row r="112" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A112" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
@@ -3538,12 +3537,12 @@
       <c r="O112" s="5"/>
       <c r="P112" s="1"/>
     </row>
-    <row r="113" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A113" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
@@ -3560,9 +3559,9 @@
       <c r="O113" s="5"/>
       <c r="P113" s="1"/>
     </row>
-    <row r="114" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A114" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B114" s="5">
         <v>-1</v>
@@ -3582,12 +3581,12 @@
       <c r="O114" s="5"/>
       <c r="P114" s="1"/>
     </row>
-    <row r="115" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A115" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
@@ -3604,12 +3603,12 @@
       <c r="O115" s="5"/>
       <c r="P115" s="1"/>
     </row>
-    <row r="116" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A116" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
@@ -3626,12 +3625,12 @@
       <c r="O116" s="5"/>
       <c r="P116" s="1"/>
     </row>
-    <row r="117" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A117" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
@@ -3648,12 +3647,12 @@
       <c r="O117" s="5"/>
       <c r="P117" s="1"/>
     </row>
-    <row r="118" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" ht="15.6">
       <c r="A118" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
@@ -3669,9 +3668,9 @@
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
     </row>
-    <row r="119" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A119" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
@@ -3689,55 +3688,55 @@
       <c r="O119" s="5"/>
       <c r="P119" s="1"/>
     </row>
-    <row r="120" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A120" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G120" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D120" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E120" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F120" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G120" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H120" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J120" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L120" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M120" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O120" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="P120" s="1"/>
     </row>
-    <row r="121" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A121" s="12" t="str">
         <f>B111</f>
         <v>treatment of used perovskite module, pyrolysis</v>
@@ -3755,14 +3754,14 @@
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G121" s="12" t="str">
         <f>B116</f>
         <v>pyrolysed used perovskite module</v>
       </c>
       <c r="H121" s="5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I121" s="5"/>
       <c r="J121" s="5"/>
@@ -3773,28 +3772,28 @@
       <c r="O121" s="5"/>
       <c r="P121" s="1"/>
     </row>
-    <row r="122" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A122" s="12" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B122" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G122" s="12" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="H122" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
@@ -3805,28 +3804,28 @@
       <c r="O122" s="5"/>
       <c r="P122" s="1"/>
     </row>
-    <row r="123" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A123" s="12" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B123" s="6">
         <v>6.1999999999999998E-3</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G123" s="12" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="H123" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I123" s="5"/>
       <c r="J123" s="5"/>
@@ -3837,28 +3836,28 @@
       <c r="O123" s="5"/>
       <c r="P123" s="1"/>
     </row>
-    <row r="124" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A124" s="12" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B124" s="6">
         <v>4.8999999999999998E-3</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G124" s="12" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H124" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I124" s="5"/>
       <c r="J124" s="5"/>
@@ -3869,28 +3868,28 @@
       <c r="O124" s="5"/>
       <c r="P124" s="1"/>
     </row>
-    <row r="125" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A125" s="12" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="B125" s="5">
         <v>0.19</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G125" s="12" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="H125" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I125" s="5"/>
       <c r="J125" s="5"/>
@@ -3900,28 +3899,28 @@
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
     </row>
-    <row r="126" spans="1:16" s="2" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" s="2" customFormat="1" ht="15.6">
       <c r="A126" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B126" s="6">
         <v>1.2999999999999999E-3</v>
       </c>
       <c r="C126" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G126" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H126" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
@@ -3932,12 +3931,12 @@
       <c r="O126" s="5"/>
       <c r="P126" s="1"/>
     </row>
-    <row r="128" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" ht="15.6">
       <c r="A128" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
@@ -3953,12 +3952,12 @@
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
     </row>
-    <row r="129" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" ht="15.6">
       <c r="A129" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
@@ -3974,12 +3973,12 @@
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
     </row>
-    <row r="130" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" ht="15.6">
       <c r="A130" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
@@ -3995,9 +3994,9 @@
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
     </row>
-    <row r="131" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" ht="15.6">
       <c r="A131" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B131" s="5">
         <v>-1</v>
@@ -4016,12 +4015,12 @@
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
     </row>
-    <row r="132" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" ht="15.6">
       <c r="A132" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
@@ -4037,12 +4036,12 @@
       <c r="N132" s="5"/>
       <c r="O132" s="5"/>
     </row>
-    <row r="133" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" ht="15.6">
       <c r="A133" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
@@ -4058,12 +4057,12 @@
       <c r="N133" s="5"/>
       <c r="O133" s="5"/>
     </row>
-    <row r="134" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" ht="15.6">
       <c r="A134" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
@@ -4079,12 +4078,12 @@
       <c r="N134" s="5"/>
       <c r="O134" s="5"/>
     </row>
-    <row r="135" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" ht="15.6">
       <c r="A135" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
@@ -4100,9 +4099,9 @@
       <c r="N135" s="5"/>
       <c r="O135" s="5"/>
     </row>
-    <row r="136" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" ht="15.6">
       <c r="A136" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
@@ -4119,54 +4118,54 @@
       <c r="N136" s="5"/>
       <c r="O136" s="5"/>
     </row>
-    <row r="137" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" ht="15.6">
       <c r="A137" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G137" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B137" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D137" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G137" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H137" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M137" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O137" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="138" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" ht="15.6">
       <c r="A138" s="5" t="str">
         <f>B128</f>
         <v>treatment of SHJ cells in used perovskite module, chemical treatment</v>
@@ -4184,14 +4183,14 @@
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G138" s="5" t="str">
         <f>B133</f>
         <v>chemical treated SHJ cells in used perovskite module</v>
       </c>
       <c r="H138" s="5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
@@ -4201,28 +4200,28 @@
       <c r="N138" s="5"/>
       <c r="O138" s="5"/>
     </row>
-    <row r="139" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" ht="15.6">
       <c r="A139" s="5" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B139" s="6">
         <v>0.14000000000000001</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H139" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
@@ -4232,28 +4231,28 @@
       <c r="N139" s="5"/>
       <c r="O139" s="5"/>
     </row>
-    <row r="140" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" ht="15.6">
       <c r="A140" s="5" t="s">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="B140" s="6">
         <v>0.15</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E140" s="5"/>
       <c r="F140" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="H140" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
@@ -4263,28 +4262,28 @@
       <c r="N140" s="5"/>
       <c r="O140" s="5"/>
     </row>
-    <row r="141" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" ht="15.6">
       <c r="A141" s="5" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="B141" s="6">
         <v>0.5</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E141" s="5"/>
       <c r="F141" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="H141" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I141" s="5"/>
       <c r="J141" s="6"/>
@@ -4294,9 +4293,9 @@
       <c r="N141" s="5"/>
       <c r="O141" s="5"/>
     </row>
-    <row r="143" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" ht="15.6">
       <c r="A143" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>84</v>
@@ -4315,12 +4314,12 @@
       <c r="N143" s="5"/>
       <c r="O143" s="5"/>
     </row>
-    <row r="144" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" ht="15.6">
       <c r="A144" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
@@ -4336,12 +4335,12 @@
       <c r="N144" s="5"/>
       <c r="O144" s="5"/>
     </row>
-    <row r="145" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" ht="15.6">
       <c r="A145" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
@@ -4357,9 +4356,9 @@
       <c r="N145" s="5"/>
       <c r="O145" s="5"/>
     </row>
-    <row r="146" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" ht="15.6">
       <c r="A146" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B146" s="5">
         <v>-1</v>
@@ -4378,12 +4377,12 @@
       <c r="N146" s="5"/>
       <c r="O146" s="5"/>
     </row>
-    <row r="147" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" ht="15.6">
       <c r="A147" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
@@ -4399,9 +4398,9 @@
       <c r="N147" s="5"/>
       <c r="O147" s="5"/>
     </row>
-    <row r="148" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" ht="15.6">
       <c r="A148" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B148" s="5" t="s">
         <v>85</v>
@@ -4420,12 +4419,12 @@
       <c r="N148" s="5"/>
       <c r="O148" s="5"/>
     </row>
-    <row r="149" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" ht="15.6">
       <c r="A149" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
@@ -4441,12 +4440,12 @@
       <c r="N149" s="5"/>
       <c r="O149" s="5"/>
     </row>
-    <row r="150" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" ht="15.6">
       <c r="A150" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
@@ -4462,9 +4461,9 @@
       <c r="N150" s="5"/>
       <c r="O150" s="5"/>
     </row>
-    <row r="151" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" ht="15.6">
       <c r="A151" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
@@ -4481,54 +4480,54 @@
       <c r="N151" s="5"/>
       <c r="O151" s="5"/>
     </row>
-    <row r="152" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" ht="15.6">
       <c r="A152" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B152" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C152" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D152" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F152" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G152" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H152" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L152" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M152" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O152" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15" ht="30.95">
       <c r="A153" s="12" t="str">
         <f>B143</f>
         <v>treatment of perovskite section in used perovskite module, chemical treatment</v>
@@ -4546,14 +4545,14 @@
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G153" s="12" t="str">
         <f>B148</f>
         <v>chemical treated perovskite section in used perovskite module</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
@@ -4563,28 +4562,28 @@
       <c r="N153" s="5"/>
       <c r="O153" s="5"/>
     </row>
-    <row r="154" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" ht="30.95">
       <c r="A154" s="12" t="s">
-        <v>48</v>
+        <v>86</v>
       </c>
       <c r="B154" s="6">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E154" s="5"/>
       <c r="F154" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G154" s="12" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
@@ -4594,7 +4593,7 @@
       <c r="N154" s="5"/>
       <c r="O154" s="5"/>
     </row>
-    <row r="155" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" ht="15.6">
       <c r="A155" s="12" t="s">
         <v>89</v>
       </c>
@@ -4602,20 +4601,20 @@
         <v>5.1000000000000004E-3</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I155" s="5"/>
       <c r="J155" s="5"/>
@@ -4625,28 +4624,28 @@
       <c r="N155" s="5"/>
       <c r="O155" s="5"/>
     </row>
-    <row r="156" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" ht="15.6">
       <c r="A156" s="12" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="B156" s="6">
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E156" s="5"/>
       <c r="F156" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G156" s="12" t="s">
-        <v>52</v>
+        <v>92</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I156" s="5"/>
       <c r="J156" s="5"/>
@@ -4656,28 +4655,28 @@
       <c r="N156" s="5"/>
       <c r="O156" s="5"/>
     </row>
-    <row r="157" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" ht="15.6">
       <c r="A157" s="12" t="s">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="B157" s="6">
         <v>3.2000000000000003E-4</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E157" s="5"/>
       <c r="F157" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G157" s="12" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
@@ -4687,12 +4686,12 @@
       <c r="N157" s="5"/>
       <c r="O157" s="5"/>
     </row>
-    <row r="159" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" ht="15.6">
       <c r="A159" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B159" s="4" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C159" s="5"/>
       <c r="D159" s="5"/>
@@ -4708,12 +4707,12 @@
       <c r="N159" s="5"/>
       <c r="O159" s="5"/>
     </row>
-    <row r="160" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" ht="15.6">
       <c r="A160" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C160" s="5"/>
       <c r="D160" s="5"/>
@@ -4729,12 +4728,12 @@
       <c r="N160" s="5"/>
       <c r="O160" s="5"/>
     </row>
-    <row r="161" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" ht="15.6">
       <c r="A161" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C161" s="5"/>
       <c r="D161" s="5"/>
@@ -4750,9 +4749,9 @@
       <c r="N161" s="5"/>
       <c r="O161" s="5"/>
     </row>
-    <row r="162" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" ht="15.6">
       <c r="A162" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B162" s="5">
         <v>-1</v>
@@ -4771,12 +4770,12 @@
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
     </row>
-    <row r="163" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" ht="15.6">
       <c r="A163" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C163" s="5"/>
       <c r="D163" s="5"/>
@@ -4792,12 +4791,12 @@
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
     </row>
-    <row r="164" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" ht="15.6">
       <c r="A164" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C164" s="5"/>
       <c r="D164" s="5"/>
@@ -4813,12 +4812,12 @@
       <c r="N164" s="5"/>
       <c r="O164" s="5"/>
     </row>
-    <row r="165" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" ht="15.6">
       <c r="A165" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C165" s="5"/>
       <c r="D165" s="5"/>
@@ -4834,12 +4833,12 @@
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
     </row>
-    <row r="166" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" ht="15.6">
       <c r="A166" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C166" s="5"/>
       <c r="D166" s="5"/>
@@ -4855,9 +4854,9 @@
       <c r="N166" s="5"/>
       <c r="O166" s="5"/>
     </row>
-    <row r="167" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" ht="15.6">
       <c r="A167" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
@@ -4874,54 +4873,54 @@
       <c r="N167" s="5"/>
       <c r="O167" s="5"/>
     </row>
-    <row r="168" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" ht="15.6">
       <c r="A168" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G168" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B168" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D168" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E168" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G168" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H168" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L168" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M168" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N168" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O168" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="169" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" ht="15.6">
       <c r="A169" s="5" t="str">
         <f>B159</f>
         <v>treatment of used perovskite module, glass treatment</v>
@@ -4939,7 +4938,7 @@
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G169" s="5" t="str">
         <f>B164</f>
@@ -4954,7 +4953,7 @@
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
     </row>
-    <row r="170" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" ht="15.6">
       <c r="A170" s="12" t="str">
         <f>A182</f>
         <v>treatment of glass from used perovskite module</v>
@@ -4963,14 +4962,14 @@
         <v>-0.79</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E170" s="5"/>
       <c r="F170" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G170" s="5" t="str">
         <f>G182</f>
@@ -4985,9 +4984,9 @@
       <c r="N170" s="5"/>
       <c r="O170" s="5"/>
     </row>
-    <row r="172" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" ht="15.6">
       <c r="A172" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>97</v>
@@ -5006,12 +5005,12 @@
       <c r="N172" s="5"/>
       <c r="O172" s="5"/>
     </row>
-    <row r="173" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" ht="15.6">
       <c r="A173" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C173" s="5"/>
       <c r="D173" s="5"/>
@@ -5027,12 +5026,12 @@
       <c r="N173" s="5"/>
       <c r="O173" s="5"/>
     </row>
-    <row r="174" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" ht="15.6">
       <c r="A174" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C174" s="5"/>
       <c r="D174" s="5"/>
@@ -5048,9 +5047,9 @@
       <c r="N174" s="5"/>
       <c r="O174" s="5"/>
     </row>
-    <row r="175" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" ht="15.6">
       <c r="A175" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B175" s="5">
         <v>-1</v>
@@ -5069,12 +5068,12 @@
       <c r="N175" s="5"/>
       <c r="O175" s="5"/>
     </row>
-    <row r="176" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" ht="15.6">
       <c r="A176" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C176" s="5"/>
       <c r="D176" s="5"/>
@@ -5090,12 +5089,12 @@
       <c r="N176" s="5"/>
       <c r="O176" s="5"/>
     </row>
-    <row r="177" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" ht="15.6">
       <c r="A177" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C177" s="5"/>
       <c r="D177" s="5"/>
@@ -5111,12 +5110,12 @@
       <c r="N177" s="5"/>
       <c r="O177" s="5"/>
     </row>
-    <row r="178" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" ht="15.6">
       <c r="A178" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C178" s="5"/>
       <c r="D178" s="5"/>
@@ -5132,12 +5131,12 @@
       <c r="N178" s="5"/>
       <c r="O178" s="5"/>
     </row>
-    <row r="179" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" ht="15.6">
       <c r="A179" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C179" s="5"/>
       <c r="D179" s="5"/>
@@ -5153,9 +5152,9 @@
       <c r="N179" s="5"/>
       <c r="O179" s="5"/>
     </row>
-    <row r="180" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" ht="15.6">
       <c r="A180" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
@@ -5172,54 +5171,54 @@
       <c r="N180" s="5"/>
       <c r="O180" s="5"/>
     </row>
-    <row r="181" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" ht="15.6">
       <c r="A181" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B181" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F181" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B181" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C181" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D181" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E181" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F181" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G181" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H181" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J181" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K181" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L181" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M181" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N181" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="182" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" ht="15.6">
       <c r="A182" s="12" t="str">
         <f>B172</f>
         <v>treatment of glass from used perovskite module</v>
@@ -5237,14 +5236,14 @@
       </c>
       <c r="E182" s="5"/>
       <c r="F182" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G182" s="12" t="str">
         <f>B177</f>
         <v>glass from used perovskite module</v>
       </c>
       <c r="H182" s="5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I182" s="5"/>
       <c r="J182" s="5"/>
@@ -5254,28 +5253,28 @@
       <c r="N182" s="5"/>
       <c r="O182" s="5"/>
     </row>
-    <row r="183" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" ht="30.95">
       <c r="A183" s="12" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="B183" s="6">
         <v>4.8600000000000003</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G183" s="12" t="s">
-        <v>64</v>
+        <v>101</v>
       </c>
       <c r="H183" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I183" s="5"/>
       <c r="J183" s="5"/>
@@ -5285,28 +5284,28 @@
       <c r="N183" s="5"/>
       <c r="O183" s="5"/>
     </row>
-    <row r="184" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" ht="15.6">
       <c r="A184" s="12" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="B184" s="6">
         <v>0.11</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="E184" s="5"/>
       <c r="F184" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G184" s="12" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="H184" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I184" s="5"/>
       <c r="J184" s="5"/>
@@ -5316,12 +5315,12 @@
       <c r="N184" s="5"/>
       <c r="O184" s="5"/>
     </row>
-    <row r="186" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" ht="15.6">
       <c r="A186" s="4" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C186" s="5"/>
       <c r="D186" s="5"/>
@@ -5337,12 +5336,12 @@
       <c r="N186" s="5"/>
       <c r="O186" s="5"/>
     </row>
-    <row r="187" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" ht="15.6">
       <c r="A187" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B187" s="5" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="C187" s="5"/>
       <c r="D187" s="5"/>
@@ -5358,12 +5357,12 @@
       <c r="N187" s="5"/>
       <c r="O187" s="5"/>
     </row>
-    <row r="188" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" ht="15.6">
       <c r="A188" s="5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B188" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C188" s="5"/>
       <c r="D188" s="5"/>
@@ -5379,9 +5378,9 @@
       <c r="N188" s="5"/>
       <c r="O188" s="5"/>
     </row>
-    <row r="189" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" ht="15.6">
       <c r="A189" s="5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B189" s="5">
         <v>-1</v>
@@ -5400,12 +5399,12 @@
       <c r="N189" s="5"/>
       <c r="O189" s="5"/>
     </row>
-    <row r="190" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" ht="15.6">
       <c r="A190" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B190" s="5" t="s">
-        <v>95</v>
+        <v>10</v>
       </c>
       <c r="C190" s="5"/>
       <c r="D190" s="5"/>
@@ -5421,12 +5420,12 @@
       <c r="N190" s="5"/>
       <c r="O190" s="5"/>
     </row>
-    <row r="191" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" ht="15.6">
       <c r="A191" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B191" s="5" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="C191" s="5"/>
       <c r="D191" s="5"/>
@@ -5442,12 +5441,12 @@
       <c r="N191" s="5"/>
       <c r="O191" s="5"/>
     </row>
-    <row r="192" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" ht="15.6">
       <c r="A192" s="5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B192" s="5" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C192" s="5"/>
       <c r="D192" s="5"/>
@@ -5463,12 +5462,12 @@
       <c r="N192" s="5"/>
       <c r="O192" s="5"/>
     </row>
-    <row r="193" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" ht="15.6">
       <c r="A193" s="5" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B193" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C193" s="5"/>
       <c r="D193" s="5"/>
@@ -5484,9 +5483,9 @@
       <c r="N193" s="5"/>
       <c r="O193" s="5"/>
     </row>
-    <row r="194" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" ht="15.6">
       <c r="A194" s="4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
@@ -5503,54 +5502,54 @@
       <c r="N194" s="5"/>
       <c r="O194" s="5"/>
     </row>
-    <row r="195" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" ht="15.6">
       <c r="A195" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B195" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C195" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G195" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B195" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C195" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D195" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E195" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F195" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G195" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="H195" s="4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J195" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L195" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M195" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="O195" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="196" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15" ht="15.6">
       <c r="A196" s="5" t="str">
         <f>B186</f>
         <v>treatment of waste from perovskite module treatment</v>
@@ -5568,14 +5567,14 @@
       </c>
       <c r="E196" s="5"/>
       <c r="F196" s="5" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="G196" s="5" t="str">
         <f>B191</f>
         <v>waste from perovskite module treatment</v>
       </c>
       <c r="H196" s="5" t="s">
-        <v>107</v>
+        <v>58</v>
       </c>
       <c r="I196" s="5"/>
       <c r="J196" s="5"/>
@@ -5585,28 +5584,28 @@
       <c r="N196" s="5"/>
       <c r="O196" s="5"/>
     </row>
-    <row r="197" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" ht="15.6">
       <c r="A197" s="12" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="B197" s="6">
         <v>-7.0000000000000001E-3</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="E197" s="5"/>
       <c r="F197" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G197" s="5" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="H197" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I197" s="5"/>
       <c r="J197" s="5"/>
@@ -5616,28 +5615,28 @@
       <c r="N197" s="5"/>
       <c r="O197" s="5"/>
     </row>
-    <row r="198" spans="1:15" ht="31" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" ht="30.95">
       <c r="A198" s="12" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="B198" s="6">
         <v>-6.4999999999999997E-4</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="E198" s="5"/>
       <c r="F198" s="5" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="H198" s="5" t="s">
-        <v>108</v>
+        <v>62</v>
       </c>
       <c r="I198" s="5"/>
       <c r="J198" s="5"/>
